--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed4/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.755199999999998</v>
+        <v>5.732599999999999</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.792899999999992</v>
+        <v>5.94249999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.096500000000002</v>
+        <v>4.915100000000004</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.6712</v>
+        <v>11.868</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.51829999999997</v>
+        <v>-20.45599999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.1413</v>
+        <v>13.00970000000001</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.252899999999998</v>
+        <v>5.313399999999997</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.384100000000003</v>
+        <v>5.466599999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.02670000000002</v>
+        <v>-22.02260000000001</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.08399999999999</v>
+        <v>-20.09529999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.1134</v>
+        <v>-22.67420000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.04670000000002</v>
+        <v>-22.19830000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.2619</v>
+        <v>5.315499999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.75549999999999</v>
+        <v>12.60699999999999</v>
       </c>
     </row>
     <row r="22">
